--- a/biology/Zoologie/D'man/D'man.xlsx
+++ b/biology/Zoologie/D'man/D'man.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%27man</t>
+          <t>D'man</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 D'man ou Daman est une race ovine algéro-marocaine. Cette race se répand dans le sud-ouest algérien et le sud-est marocain, elle constitue la race des oasis et forme la base de l'élevage sédentaire dans la région. Les troupeaux sont à effectif très réduit et comptent rarement plus d'une dizaine de têtes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%27man</t>
+          <t>D'man</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine historique de la race D'man n'est pas très connue. Elle existe dans les palmeraies des régions pré-sahariennes du Sud maghrebin  depuis fort longtemps. Elle se localise essentiellement dans les oasis des vallées du Dadès, du Ziz, du Drâa, du Saoura et dans la région du Gourara[1]. La présence de pendeloques chez certains individus de cette race laisse suggérer une importante contribution à la constitution de cette race des Oasis par les moutons à poils d'Afrique de l'Ouest[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine historique de la race D'man n'est pas très connue. Elle existe dans les palmeraies des régions pré-sahariennes du Sud maghrebin  depuis fort longtemps. Elle se localise essentiellement dans les oasis des vallées du Dadès, du Ziz, du Drâa, du Saoura et dans la région du Gourara. La présence de pendeloques chez certains individus de cette race laisse suggérer une importante contribution à la constitution de cette race des Oasis par les moutons à poils d'Afrique de l'Ouest.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%27man</t>
+          <t>D'man</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette race à forte hétérogénéité phénotypique est de petite taille et du type longiligne. Elle est caractérisée par[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette race à forte hétérogénéité phénotypique est de petite taille et du type longiligne. Elle est caractérisée par:
 Ossature fine.
 Tête étroite, convexe chez les femelles plus nettement chez les mâles, avec un plissement de la peau sur le chanfrein.
 Absence de cornes chez les brebis comme chez les béliers. L'absence de cornes chez le mâle différencie la race D'man des autres races maghrébines.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%27man</t>
+          <t>D'man</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Zones d'élevage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le berceau de la race D'man est localisé dans les régions pré-sahariennes du Sud maghrebin, essentiellement les oasis d'Errachidia et Ouarzazate au Maroc[2], Saoura et Gourara en Algérie et même à Tozeur et Kebili et dans d'autres régions du Sud tunisien[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le berceau de la race D'man est localisé dans les régions pré-sahariennes du Sud maghrebin, essentiellement les oasis d'Errachidia et Ouarzazate au Maroc, Saoura et Gourara en Algérie et même à Tozeur et Kebili et dans d'autres régions du Sud tunisien. 
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%27man</t>
+          <t>D'man</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,14 +631,89 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Productions bouchères
-Le poids moyen à la naissance est de 1,7 à 2,9 kilogrammes[4]. Les croissances moyennes sont de 160 à 180 g/j entre 10 et 30 jours et 170 à 200 g/j entre 30 et 70 jours[2]. Une étude faite entre 2003 et 2006 sur la croissance de 759 agneaux de race D’Man dans les régions de Tozeur (431 agneaux) et Kebili (328 agneaux) conclut les poids moyens des agneaux D’Man aux âges types (Voir le tableau ci-dessous)[3].
+          <t>Productions bouchères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poids moyen à la naissance est de 1,7 à 2,9 kilogrammes. Les croissances moyennes sont de 160 à 180 g/j entre 10 et 30 jours et 170 à 200 g/j entre 30 et 70 jours. Une étude faite entre 2003 et 2006 sur la croissance de 759 agneaux de race D’Man dans les régions de Tozeur (431 agneaux) et Kebili (328 agneaux) conclut les poids moyens des agneaux D’Man aux âges types (Voir le tableau ci-dessous).
 Tableau : Poids moyens aux âges types (écart type)
-En 2003 Derquaoui a trouvé que les agnelles nées en été étaient plus lourdes (27 kg) que celles nées en hiver (25 kg) à la puberté[3]. Le poids moyen adulte est de 30 à 45 kilogrammes chez la brebis et de 50 à 70 kilogrammes chez le bélier[4].
-Production de laine
-La race D’Man a une laine de qualité médiocre à mauvaise, cette laine ne couvrant généralement que le dos. Le poids moyen d’une toison varie entre 0,5 et 1,5 kilogramme[4].
-Performances
-La race D'man est connue par sa forte prolificité, sa précocité sexuelle et son aptitude au dessaisonnement[5]. Les brebis de race D'man ont une activité sexuelle durant toute l'année et cela est expliqué par la distribution des agnelages au cours de l'année avec une légère diminution limitée à certaines périodes (février et août-septembre)[6]. 
+En 2003 Derquaoui a trouvé que les agnelles nées en été étaient plus lourdes (27 kg) que celles nées en hiver (25 kg) à la puberté. Le poids moyen adulte est de 30 à 45 kilogrammes chez la brebis et de 50 à 70 kilogrammes chez le bélier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>D'man</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%27man</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Production de laine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La race D’Man a une laine de qualité médiocre à mauvaise, cette laine ne couvrant généralement que le dos. Le poids moyen d’une toison varie entre 0,5 et 1,5 kilogramme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>D'man</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%27man</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Performances</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La race D'man est connue par sa forte prolificité, sa précocité sexuelle et son aptitude au dessaisonnement. Les brebis de race D'man ont une activité sexuelle durant toute l'année et cela est expliqué par la distribution des agnelages au cours de l'année avec une légère diminution limitée à certaines périodes (février et août-septembre). 
 Puberté : agnelles nées en juillet (110 à 220 jours d'âge) pendant que les agnelles nées en novembre - décembre (169 à 292 jours après la naissance.)
 premier agnelage : a lieu entre l'âge de 9 et 22 mois.
 Fertilité : une moyenne de 86,9 % en saillie naturelle et 24 % lors d'insémination artificielle.
